--- a/target/test-classes/Testdata.xlsx
+++ b/target/test-classes/Testdata.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f85be9d648705215/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Classes\Advanced\GTManageRestauured\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{AD98A006-A50E-4CE8-99E0-6EFC155F33B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEECA26E-4588-4598-A76A-90D5A8AE49A2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E47FBF-75B7-4BB6-BA63-8C56610999CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{56960EDA-75A9-44B1-93CD-ECA5511CACA9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{56960EDA-75A9-44B1-93CD-ECA5511CACA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
+    <sheet name="ProjectId" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Projectname</t>
   </si>
@@ -55,6 +56,18 @@
   </si>
   <si>
     <t>Created</t>
+  </si>
+  <si>
+    <t>TY_PROJ_10476</t>
+  </si>
+  <si>
+    <t>TY_PROJ_10487</t>
+  </si>
+  <si>
+    <t>DeleteProjectID</t>
+  </si>
+  <si>
+    <t>SingleProjectID</t>
   </si>
 </sst>
 </file>
@@ -415,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640D6930-A8D8-4FC6-A85F-269890C7EF2D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -458,4 +471,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D07E82-97F4-47BA-A54A-8E207C1DA59E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>